--- a/xlsx/美国新闻与世界报道_intext.xlsx
+++ b/xlsx/美国新闻与世界报道_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>美国新闻与世界报道</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>新聞雜誌</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国新闻与世界报道</t>
+    <t>新闻杂志</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国新闻与世界报道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國大學列表</t>
+    <t>美国大学列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mortimer_Zuckerman</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E9%9B%9C%E8%AA%8C%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國國家雜誌獎</t>
+    <t>美国国家杂志奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E9%99%A2</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E9%A6%AC%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>艾爾馬學院</t>
+    <t>艾尔马学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
+    <t>斯坦福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%AD%A6%E9%99%A2_(%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF/%E5%9C%A3%E8%BE%BE%E8%8F%B2)</t>
@@ -197,67 +197,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹福大學</t>
+    <t>史丹福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
+    <t>加州理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛杉磯加州大學</t>
+    <t>洛杉矶加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓大學</t>
+    <t>华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -269,55 +269,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯頓大學</t>
+    <t>普林斯顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密歇根大學</t>
+    <t>密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%9D%E5%9C%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦帝國學院</t>
+    <t>伦敦帝国学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E4%BA%9E%E5%93%A5%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地亞哥加州大學</t>
+    <t>圣地亚哥加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜克大學</t>
+    <t>杜克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E8%88%8A%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學舊金山分校</t>
+    <t>加州大学旧金山分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E5%B7%B4%E5%B7%B4%E6%8B%89%E5%88%86%E6%A0%A1</t>
@@ -377,25 +377,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東京大學</t>
+    <t>东京大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>英屬哥倫比亞大學</t>
+    <t>英属哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約大學</t>
+    <t>纽约大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡大學</t>
+    <t>爱丁堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學戴維斯分校</t>
+    <t>加州大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>墨爾本大學</t>
+    <t>墨尔本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北京大學</t>
+    <t>北京大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%A4%A7%E5%AD%A6</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南加州大學</t>
+    <t>南加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E6%B1%B6%E5%A4%A7%E5%AD%A6</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>科羅拉多大學波德分校</t>
+    <t>科罗拉多大学波德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%9B%BD%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E7%AC%AC%E5%85%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴黎第六大學</t>
+    <t>巴黎第六大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Encyclop%C3%A6dia_Britannica</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>Template talk-大學排名系統</t>
+    <t>Template talk-大学排名系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E5%A4%A7%E4%B8%AD%E5%9C%8B%E5%A4%A7%E5%AD%B8%E6%8E%92%E8%A1%8C%E6%A6%9C</t>
   </si>
   <si>
-    <t>網大中國大學排行榜</t>
+    <t>网大中国大学排行榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
@@ -581,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/QS%E4%BA%9E%E6%B4%B2%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>QS亞洲大學排名</t>
+    <t>QS亚洲大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A3%B0%E8%AA%89%E6%8E%92%E5%90%8D</t>
@@ -599,9 +599,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界大學排名列表</t>
+    <t>世界大学排名列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E7%B6%B2%E8%B7%AF%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>世界大學網路排名</t>
+    <t>世界大学网路排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D_(2003)</t>
@@ -3947,7 +3944,7 @@
         <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="G102" t="n">
         <v>22</v>
@@ -3973,10 +3970,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4002,10 +3999,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4031,10 +4028,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4060,10 +4057,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4089,10 +4086,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4118,10 +4115,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4147,10 +4144,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4176,10 +4173,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" t="s">
         <v>203</v>
-      </c>
-      <c r="F110" t="s">
-        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4205,10 +4202,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
